--- a/figures/performance_data.xlsx
+++ b/figures/performance_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason D. Bakos\Desktop\Dropbox\Jason\dropbear_lstm\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Jason D. Bakos\dropbear_lstm\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF12075-7DD2-4F71-A16E-7382F691187D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468F661-47F2-4FCF-81DC-FBE4BFA4B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{6B51B192-BD88-47B2-97DB-0DC83492C492}"/>
+    <workbookView xWindow="27435" yWindow="2880" windowWidth="24330" windowHeight="16800" xr2:uid="{6B51B192-BD88-47B2-97DB-0DC83492C492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Subsample rate (Hz)</t>
   </si>
@@ -464,31 +464,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70EEE5B-2251-4268-BBC1-975F6029F5C0}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +530,7 @@
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2500</v>
       </c>
@@ -579,7 +579,7 @@
         <v>7.0198439061641693E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0.48964284360408783</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7500</v>
       </c>
@@ -677,7 +677,7 @@
         <v>1.1535594239830971</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1.8174760043621063</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12500</v>
       </c>
@@ -775,7 +775,7 @@
         <v>3.8434518501162525</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15000</v>
       </c>
@@ -824,7 +824,7 @@
         <v>4.6121422201395035</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17500</v>
       </c>
@@ -873,7 +873,7 @@
         <v>5.3808325901627541</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20000</v>
       </c>
@@ -922,7 +922,7 @@
         <v>8.9434906840324402</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,7 +957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200</v>
       </c>
@@ -983,7 +983,7 @@
         <v>22.908130888274123</v>
       </c>
       <c r="K13" s="3">
-        <f>B13/E13</f>
+        <f t="shared" ref="K13:K20" si="8">B13/E13</f>
         <v>1.2257383966244726</v>
       </c>
       <c r="M13">
@@ -996,7 +996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>700</v>
       </c>
@@ -1007,22 +1007,22 @@
         <v>245604</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ref="D14:D20" si="8">C14/B14</f>
+        <f t="shared" ref="D14:D20" si="9">C14/B14</f>
         <v>150.67730061349693</v>
       </c>
       <c r="E14">
         <v>484</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F20" si="9">D14*E14/1000</f>
+        <f t="shared" ref="F14:F20" si="10">D14*E14/1000</f>
         <v>72.927813496932515</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:J20" si="10">L3/K14*1000000/1024/1024/1024</f>
+        <f t="shared" ref="J14:J20" si="11">L3/K14*1000000/1024/1024/1024</f>
         <v>29.078176233666078</v>
       </c>
       <c r="K14" s="3">
-        <f>B14/E14</f>
+        <f t="shared" si="8"/>
         <v>3.3677685950413223</v>
       </c>
       <c r="M14">
@@ -1035,7 +1035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1100</v>
       </c>
@@ -1046,22 +1046,22 @@
         <v>385604</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>149.45891472868217</v>
       </c>
       <c r="E15">
         <v>484</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>72.338114728682172</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>28.853889468104342</v>
       </c>
       <c r="K15" s="3">
-        <f>B15/E15</f>
+        <f t="shared" si="8"/>
         <v>5.330578512396694</v>
       </c>
       <c r="M15">
@@ -1074,7 +1074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1300</v>
       </c>
@@ -1085,22 +1085,22 @@
         <v>455604</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>152.88724832214766</v>
       </c>
       <c r="E16">
         <v>484</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73.997428187919454</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.518737788968441</v>
       </c>
       <c r="K16" s="3">
-        <f>B16/E16</f>
+        <f t="shared" si="8"/>
         <v>6.1570247933884295</v>
       </c>
       <c r="M16">
@@ -1113,7 +1113,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2200</v>
       </c>
@@ -1124,22 +1124,22 @@
         <v>770604</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.91386682956627</v>
       </c>
       <c r="E17">
         <v>484</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75.946311545510085</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
       <c r="K17" s="3">
-        <f>B17/E17</f>
+        <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
       <c r="M17">
@@ -1152,7 +1152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2200</v>
       </c>
@@ -1163,22 +1163,22 @@
         <v>770604</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.91386682956627</v>
       </c>
       <c r="E18">
         <v>484</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75.946311545510085</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
       <c r="K18" s="3">
-        <f>B18/E18</f>
+        <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
       <c r="M18">
@@ -1191,7 +1191,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2200</v>
       </c>
@@ -1202,22 +1202,22 @@
         <v>770604</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>156.91386682956627</v>
       </c>
       <c r="E19">
         <v>484</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>75.946311545510085</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
       <c r="K19" s="3">
-        <f>B19/E19</f>
+        <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
       <c r="M19">
@@ -1230,7 +1230,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3200</v>
       </c>
@@ -1241,22 +1241,22 @@
         <v>1120604</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>152.77491479209272</v>
       </c>
       <c r="E20">
         <v>484</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>73.943058759372875</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29.506813163406278</v>
       </c>
       <c r="K20" s="3">
-        <f>B20/E20</f>
+        <f t="shared" si="8"/>
         <v>15.154958677685951</v>
       </c>
       <c r="M20">
@@ -1267,6 +1267,175 @@
       </c>
       <c r="O20">
         <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2500</v>
+      </c>
+      <c r="B23">
+        <v>26.9</v>
+      </c>
+      <c r="C23">
+        <f>A23*0.04</f>
+        <v>100</v>
+      </c>
+      <c r="D23" s="4">
+        <f>C23/A23*1000</f>
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5000</v>
+      </c>
+      <c r="B24">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C30" si="12">A24*0.04</f>
+        <v>200</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" ref="D24:D30" si="13">C24/A24*1000</f>
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7500</v>
+      </c>
+      <c r="B25">
+        <v>42.9</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="12"/>
+        <v>300</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10000</v>
+      </c>
+      <c r="B26">
+        <v>46.8</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="12"/>
+        <v>400</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>12500</v>
+      </c>
+      <c r="B27">
+        <v>48.9</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>15000</v>
+      </c>
+      <c r="B28">
+        <v>50.7</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>17500</v>
+      </c>
+      <c r="B29">
+        <v>52.1</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>20000</v>
+      </c>
+      <c r="B30">
+        <v>54.1</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="13"/>
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>38.5</v>
       </c>
     </row>
   </sheetData>

--- a/figures/performance_data.xlsx
+++ b/figures/performance_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Jason D. Bakos\dropbear_lstm\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9468F661-47F2-4FCF-81DC-FBE4BFA4B047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA184B2E-9E14-4B2E-91DF-FA79D855D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27435" yWindow="2880" windowWidth="24330" windowHeight="16800" xr2:uid="{6B51B192-BD88-47B2-97DB-0DC83492C492}"/>
+    <workbookView xWindow="47505" yWindow="4830" windowWidth="19365" windowHeight="11895" xr2:uid="{6B51B192-BD88-47B2-97DB-0DC83492C492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Subsample rate (Hz)</t>
   </si>
@@ -104,6 +105,18 @@
   </si>
   <si>
     <t>Achieved memory b/w (GB/s)</t>
+  </si>
+  <si>
+    <t>h (ms)</t>
+  </si>
+  <si>
+    <t>Fmax</t>
+  </si>
+  <si>
+    <t>DSP</t>
+  </si>
+  <si>
+    <t>FF</t>
   </si>
 </sst>
 </file>
@@ -464,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70EEE5B-2251-4268-BBC1-975F6029F5C0}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +496,7 @@
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1285,6 +1298,27 @@
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1304,6 +1338,34 @@
       <c r="E23">
         <v>18.899999999999999</v>
       </c>
+      <c r="G23">
+        <f>C23*50*2+50+50*2+1</f>
+        <v>10151</v>
+      </c>
+      <c r="H23">
+        <f>1+50+1</f>
+        <v>52</v>
+      </c>
+      <c r="I23">
+        <f>50*3+C23*50*3+50*2</f>
+        <v>15250</v>
+      </c>
+      <c r="J23">
+        <f>G23*2+H23+I23</f>
+        <v>35604</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" ref="K23:K30" si="12">(J23)/(1/A23)/1000000000</f>
+        <v>8.9010000000000006E-2</v>
+      </c>
+      <c r="L23">
+        <f>(C23*50+50)*3</f>
+        <v>15150</v>
+      </c>
+      <c r="M23" s="2">
+        <f>L23/(1/A23)/1024/1024/1024</f>
+        <v>3.5273842513561249E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1313,15 +1375,43 @@
         <v>37.700000000000003</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C30" si="12">A24*0.04</f>
+        <f t="shared" ref="C24:C30" si="13">A24*0.04</f>
         <v>200</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:D30" si="13">C24/A24*1000</f>
+        <f t="shared" ref="D24:D30" si="14">C24/A24*1000</f>
         <v>40</v>
       </c>
       <c r="E24">
         <v>24.8</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G30" si="15">C24*50*2+50+50*2+1</f>
+        <v>20151</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H30" si="16">1+50+1</f>
+        <v>52</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ref="I24:I30" si="17">50*3+C24*50*3+50*2</f>
+        <v>30250</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J30" si="18">G24*2+H24+I24</f>
+        <v>70604</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="12"/>
+        <v>0.35302</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L30" si="19">(C24*50+50)*3</f>
+        <v>30150</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" ref="M24:M30" si="20">L24/(1/A24)/1024/1024/1024</f>
+        <v>0.14039687812328339</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1332,15 +1422,43 @@
         <v>42.9</v>
       </c>
       <c r="C25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>300</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="E25">
         <v>30.6</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="15"/>
+        <v>30151</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="17"/>
+        <v>45250</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="18"/>
+        <v>105604</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="12"/>
+        <v>0.79203000000000001</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="19"/>
+        <v>45150</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="20"/>
+        <v>0.31536910682916641</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1351,15 +1469,43 @@
         <v>46.8</v>
       </c>
       <c r="C26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="E26">
         <v>32.4</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="15"/>
+        <v>40151</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="17"/>
+        <v>60250</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="18"/>
+        <v>140604</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="12"/>
+        <v>1.40604</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="19"/>
+        <v>60150</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="20"/>
+        <v>0.56019052863121033</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1370,15 +1516,43 @@
         <v>48.9</v>
       </c>
       <c r="C27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="E27">
         <v>34.9</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="15"/>
+        <v>50151</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="17"/>
+        <v>75250</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="18"/>
+        <v>175604</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="12"/>
+        <v>2.1950500000000002</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="19"/>
+        <v>75150</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="20"/>
+        <v>0.87486114352941502</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1389,15 +1563,43 @@
         <v>50.7</v>
       </c>
       <c r="C28">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>600</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="E28">
         <v>37.1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="15"/>
+        <v>60151</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="17"/>
+        <v>90250</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="18"/>
+        <v>210604</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="12"/>
+        <v>3.1590600000000002</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="19"/>
+        <v>90150</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="20"/>
+        <v>1.2593809515237808</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1408,15 +1610,43 @@
         <v>52.1</v>
       </c>
       <c r="C29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>700</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="E29">
         <v>37.5</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="15"/>
+        <v>70151</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="17"/>
+        <v>105250</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="18"/>
+        <v>245604</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="12"/>
+        <v>4.2980700000000001</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="19"/>
+        <v>105150</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="20"/>
+        <v>1.7137499526143074</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1427,18 +1657,163 @@
         <v>54.1</v>
       </c>
       <c r="C30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>800</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>40</v>
       </c>
       <c r="E30">
         <v>38.5</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="15"/>
+        <v>80151</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="17"/>
+        <v>120250</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="18"/>
+        <v>280604</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="12"/>
+        <v>5.6120799999999997</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="19"/>
+        <v>120150</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="20"/>
+        <v>2.2379681468009949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2500</v>
+      </c>
+      <c r="B34">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <f>A34*B34*0.001</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5000</v>
+      </c>
+      <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C41" si="21">A35*B35*0.001</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7500</v>
+      </c>
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="21"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10000</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="21"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>12500</v>
+      </c>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="21"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>15000</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="21"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>17500</v>
+      </c>
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="21"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20000</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="21"/>
+        <v>800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/figures/performance_data.xlsx
+++ b/figures/performance_data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Jason D. Bakos\dropbear_lstm\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA184B2E-9E14-4B2E-91DF-FA79D855D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB734DA-CDEB-4590-8E37-F9DFBAA7EDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47505" yWindow="4830" windowWidth="19365" windowHeight="11895" xr2:uid="{6B51B192-BD88-47B2-97DB-0DC83492C492}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14040" xr2:uid="{6B51B192-BD88-47B2-97DB-0DC83492C492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Subsample rate (Hz)</t>
   </si>
@@ -117,6 +116,9 @@
   </si>
   <si>
     <t>FF</t>
+  </si>
+  <si>
+    <t>BRAM</t>
   </si>
 </sst>
 </file>
@@ -477,31 +479,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70EEE5B-2251-4268-BBC1-975F6029F5C0}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" customWidth="1"/>
+    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,36 +516,37 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2500</v>
       </c>
@@ -557,42 +560,43 @@
         <f>C2/A2*1000</f>
         <v>80</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4"/>
+      <c r="F2">
         <v>24.4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>400</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <f>C2*50*2+50+50*2+1</f>
         <v>20151</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>1+50+1</f>
         <v>52</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>50*3+C2*50*3+50*2</f>
         <v>30250</v>
       </c>
-      <c r="J2">
-        <f>G2*2+H2+I2</f>
+      <c r="K2">
+        <f>H2*2+I2+J2</f>
         <v>70604</v>
       </c>
-      <c r="K2" s="3">
-        <f t="shared" ref="K2:K9" si="0">(J2)/(1/A2)/1000000000</f>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L9" si="0">(K2)/(1/A2)/1000000000</f>
         <v>0.17651</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>(C2*50+50)*3</f>
         <v>30150</v>
       </c>
-      <c r="M2" s="2">
-        <f>L2/(1/A2)/1024/1024/1024</f>
+      <c r="N2" s="2">
+        <f>M2/(1/A2)/1024/1024/1024</f>
         <v>7.0198439061641693E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -606,42 +610,43 @@
         <f t="shared" ref="D3:D9" si="1">C3/A3*1000</f>
         <v>140</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4"/>
+      <c r="F3">
         <v>32.9</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>200</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="2">C3*50*2+50+50*2+1</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="2">C3*50*2+50+50*2+1</f>
         <v>70151</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" si="3">1+50+1</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="3">1+50+1</f>
         <v>52</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" si="4">50*3+C3*50*3+50*2</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="4">50*3+C3*50*3+50*2</f>
         <v>105250</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J9" si="5">G3*2+H3+I3</f>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="5">H3*2+I3+J3</f>
         <v>245604</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <f t="shared" si="0"/>
         <v>1.2280199999999999</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L9" si="6">(C3*50+50)*3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="6">(C3*50+50)*3</f>
         <v>105150</v>
       </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M9" si="7">L3/(1/A3)/1024/1024/1024</f>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N9" si="7">M3/(1/A3)/1024/1024/1024</f>
         <v>0.48964284360408783</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>7500</v>
       </c>
@@ -655,42 +660,43 @@
         <f t="shared" si="1"/>
         <v>146.66666666666666</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4"/>
+      <c r="F4">
         <v>39.4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>133</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="2"/>
         <v>110151</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f t="shared" si="4"/>
         <v>165250</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f t="shared" si="5"/>
         <v>385604</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>2.8920300000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="6"/>
         <v>165150</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="7"/>
         <v>1.1535594239830971</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -704,42 +710,43 @@
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4"/>
+      <c r="F5">
         <v>42.1</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="2"/>
         <v>130151</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <f t="shared" si="4"/>
         <v>195250</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f t="shared" si="5"/>
         <v>455604</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="0"/>
         <v>4.5560400000000003</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="6"/>
         <v>195150</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <f t="shared" si="7"/>
         <v>1.8174760043621063</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>12500</v>
       </c>
@@ -753,42 +760,43 @@
         <f t="shared" si="1"/>
         <v>176</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4"/>
+      <c r="F6">
         <v>46.8</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>80</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>220151</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="4"/>
         <v>330250</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="5"/>
         <v>770604</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>9.6325500000000002</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="6"/>
         <v>330150</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <f t="shared" si="7"/>
         <v>3.8434518501162525</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>15000</v>
       </c>
@@ -802,42 +810,43 @@
         <f t="shared" si="1"/>
         <v>146.66666666666666</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4"/>
+      <c r="F7">
         <v>48.9</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>67</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="2"/>
         <v>220151</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <f t="shared" si="4"/>
         <v>330250</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f t="shared" si="5"/>
         <v>770604</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>11.559060000000001</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="6"/>
         <v>330150</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <f t="shared" si="7"/>
         <v>4.6121422201395035</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>17500</v>
       </c>
@@ -851,42 +860,43 @@
         <f t="shared" si="1"/>
         <v>125.71428571428572</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4"/>
+      <c r="F8">
         <v>50.1</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>57</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="2"/>
         <v>220151</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <f t="shared" si="4"/>
         <v>330250</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="5"/>
         <v>770604</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <f t="shared" si="0"/>
         <v>13.485569999999999</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="6"/>
         <v>330150</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="7"/>
         <v>5.3808325901627541</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>20000</v>
       </c>
@@ -900,42 +910,43 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4"/>
+      <c r="F9">
         <v>46.6</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="2"/>
         <v>320151</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <f t="shared" si="4"/>
         <v>480250</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="5"/>
         <v>1120604</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <f t="shared" si="0"/>
         <v>22.41208</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="6"/>
         <v>480150</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="7"/>
         <v>8.9434906840324402</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -948,29 +959,30 @@
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>200</v>
       </c>
@@ -984,32 +996,33 @@
         <f>C13/B13</f>
         <v>121.52151462994837</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4"/>
+      <c r="F13">
         <v>474</v>
       </c>
-      <c r="F13" s="4">
-        <f>D13*E13/1000</f>
+      <c r="G13" s="4">
+        <f>D13*F13/1000</f>
         <v>57.601197934595525</v>
       </c>
-      <c r="J13" s="3">
-        <f>L2/K13*1000000/1024/1024/1024</f>
+      <c r="K13" s="3">
+        <f>M2/L13*1000000/1024/1024/1024</f>
         <v>22.908130888274123</v>
       </c>
-      <c r="K13" s="3">
-        <f t="shared" ref="K13:K20" si="8">B13/E13</f>
+      <c r="L13" s="3">
+        <f t="shared" ref="L13:L20" si="8">B13/F13</f>
         <v>1.2257383966244726</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>700</v>
       </c>
@@ -1023,32 +1036,33 @@
         <f t="shared" ref="D14:D20" si="9">C14/B14</f>
         <v>150.67730061349693</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4"/>
+      <c r="F14">
         <v>484</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14:F20" si="10">D14*E14/1000</f>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:G20" si="10">D14*F14/1000</f>
         <v>72.927813496932515</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" ref="J14:J20" si="11">L3/K14*1000000/1024/1024/1024</f>
+      <c r="K14" s="3">
+        <f t="shared" ref="K14:K20" si="11">M3/L14*1000000/1024/1024/1024</f>
         <v>29.078176233666078</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="8"/>
         <v>3.3677685950413223</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>16</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>10</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1100</v>
       </c>
@@ -1062,32 +1076,33 @@
         <f t="shared" si="9"/>
         <v>149.45891472868217</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4"/>
+      <c r="F15">
         <v>484</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <f t="shared" si="10"/>
         <v>72.338114728682172</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <f t="shared" si="11"/>
         <v>28.853889468104342</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="8"/>
         <v>5.330578512396694</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>23</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>14</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1300</v>
       </c>
@@ -1101,32 +1116,33 @@
         <f t="shared" si="9"/>
         <v>152.88724832214766</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4"/>
+      <c r="F16">
         <v>484</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <f t="shared" si="10"/>
         <v>73.997428187919454</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <f t="shared" si="11"/>
         <v>29.518737788968441</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <f t="shared" si="8"/>
         <v>6.1570247933884295</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>23</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>14</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2200</v>
       </c>
@@ -1140,32 +1156,33 @@
         <f t="shared" si="9"/>
         <v>156.91386682956627</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4"/>
+      <c r="F17">
         <v>484</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <f t="shared" si="10"/>
         <v>75.946311545510085</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>23</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>14</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2200</v>
       </c>
@@ -1179,32 +1196,33 @@
         <f t="shared" si="9"/>
         <v>156.91386682956627</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4"/>
+      <c r="F18">
         <v>484</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <f t="shared" si="10"/>
         <v>75.946311545510085</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>23</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>14</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2200</v>
       </c>
@@ -1218,32 +1236,33 @@
         <f t="shared" si="9"/>
         <v>156.91386682956627</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4"/>
+      <c r="F19">
         <v>484</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <f t="shared" si="10"/>
         <v>75.946311545510085</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>23</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>14</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3200</v>
       </c>
@@ -1257,32 +1276,33 @@
         <f t="shared" si="9"/>
         <v>152.77491479209272</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4"/>
+      <c r="F20">
         <v>484</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <f t="shared" si="10"/>
         <v>73.943058759372875</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <f t="shared" si="11"/>
         <v>29.506813163406278</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <f t="shared" si="8"/>
         <v>15.154958677685951</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>23</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>14</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,32 +1315,33 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2500</v>
       </c>
@@ -1335,39 +1356,40 @@
         <f>C23/A23*1000</f>
         <v>40</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4"/>
+      <c r="F23">
         <v>18.899999999999999</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f>C23*50*2+50+50*2+1</f>
         <v>10151</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f>1+50+1</f>
         <v>52</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <f>50*3+C23*50*3+50*2</f>
         <v>15250</v>
       </c>
-      <c r="J23">
-        <f>G23*2+H23+I23</f>
+      <c r="K23">
+        <f>H23*2+I23+J23</f>
         <v>35604</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" ref="K23:K30" si="12">(J23)/(1/A23)/1000000000</f>
+      <c r="L23" s="3">
+        <f t="shared" ref="L23:L30" si="12">(K23)/(1/A23)/1000000000</f>
         <v>8.9010000000000006E-2</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f>(C23*50+50)*3</f>
         <v>15150</v>
       </c>
-      <c r="M23" s="2">
-        <f>L23/(1/A23)/1024/1024/1024</f>
+      <c r="N23" s="2">
+        <f>M23/(1/A23)/1024/1024/1024</f>
         <v>3.5273842513561249E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>5000</v>
       </c>
@@ -1382,39 +1404,40 @@
         <f t="shared" ref="D24:D30" si="14">C24/A24*1000</f>
         <v>40</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4"/>
+      <c r="F24">
         <v>24.8</v>
       </c>
-      <c r="G24">
-        <f t="shared" ref="G24:G30" si="15">C24*50*2+50+50*2+1</f>
+      <c r="H24">
+        <f t="shared" ref="H24:H30" si="15">C24*50*2+50+50*2+1</f>
         <v>20151</v>
       </c>
-      <c r="H24">
-        <f t="shared" ref="H24:H30" si="16">1+50+1</f>
+      <c r="I24">
+        <f t="shared" ref="I24:I30" si="16">1+50+1</f>
         <v>52</v>
       </c>
-      <c r="I24">
-        <f t="shared" ref="I24:I30" si="17">50*3+C24*50*3+50*2</f>
+      <c r="J24">
+        <f t="shared" ref="J24:J30" si="17">50*3+C24*50*3+50*2</f>
         <v>30250</v>
       </c>
-      <c r="J24">
-        <f t="shared" ref="J24:J30" si="18">G24*2+H24+I24</f>
+      <c r="K24">
+        <f t="shared" ref="K24:K30" si="18">H24*2+I24+J24</f>
         <v>70604</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <f t="shared" si="12"/>
         <v>0.35302</v>
       </c>
-      <c r="L24">
-        <f t="shared" ref="L24:L30" si="19">(C24*50+50)*3</f>
+      <c r="M24">
+        <f t="shared" ref="M24:M30" si="19">(C24*50+50)*3</f>
         <v>30150</v>
       </c>
-      <c r="M24" s="2">
-        <f t="shared" ref="M24:M30" si="20">L24/(1/A24)/1024/1024/1024</f>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24:N30" si="20">M24/(1/A24)/1024/1024/1024</f>
         <v>0.14039687812328339</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>7500</v>
       </c>
@@ -1429,39 +1452,40 @@
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4"/>
+      <c r="F25">
         <v>30.6</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="15"/>
         <v>30151</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="17"/>
         <v>45250</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="18"/>
         <v>105604</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <f t="shared" si="12"/>
         <v>0.79203000000000001</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="19"/>
         <v>45150</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <f t="shared" si="20"/>
         <v>0.31536910682916641</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -1476,39 +1500,40 @@
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4"/>
+      <c r="F26">
         <v>32.4</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="15"/>
         <v>40151</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <f t="shared" si="17"/>
         <v>60250</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <f t="shared" si="18"/>
         <v>140604</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <f t="shared" si="12"/>
         <v>1.40604</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="19"/>
         <v>60150</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <f t="shared" si="20"/>
         <v>0.56019052863121033</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>12500</v>
       </c>
@@ -1523,39 +1548,40 @@
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4"/>
+      <c r="F27">
         <v>34.9</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="15"/>
         <v>50151</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <f t="shared" si="17"/>
         <v>75250</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <f t="shared" si="18"/>
         <v>175604</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <f t="shared" si="12"/>
         <v>2.1950500000000002</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="19"/>
         <v>75150</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <f t="shared" si="20"/>
         <v>0.87486114352941502</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>15000</v>
       </c>
@@ -1570,39 +1596,40 @@
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4"/>
+      <c r="F28">
         <v>37.1</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="15"/>
         <v>60151</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <f t="shared" si="17"/>
         <v>90250</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <f t="shared" si="18"/>
         <v>210604</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <f t="shared" si="12"/>
         <v>3.1590600000000002</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="19"/>
         <v>90150</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <f t="shared" si="20"/>
         <v>1.2593809515237808</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>17500</v>
       </c>
@@ -1617,39 +1644,40 @@
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4"/>
+      <c r="F29">
         <v>37.5</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="15"/>
         <v>70151</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <f t="shared" si="17"/>
         <v>105250</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f t="shared" si="18"/>
         <v>245604</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <f t="shared" si="12"/>
         <v>4.2980700000000001</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f t="shared" si="19"/>
         <v>105150</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <f t="shared" si="20"/>
         <v>1.7137499526143074</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>20000</v>
       </c>
@@ -1664,39 +1692,40 @@
         <f t="shared" si="14"/>
         <v>40</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4"/>
+      <c r="F30">
         <v>38.5</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f t="shared" si="15"/>
         <v>80151</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="16"/>
         <v>52</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <f t="shared" si="17"/>
         <v>120250</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f t="shared" si="18"/>
         <v>280604</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <f t="shared" si="12"/>
         <v>5.6120799999999997</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f t="shared" si="19"/>
         <v>120150</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <f t="shared" si="20"/>
         <v>2.2379681468009949</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,13 +1739,31 @@
         <v>24</v>
       </c>
       <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="s">
         <v>25</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2500</v>
       </c>
@@ -1727,8 +1774,24 @@
         <f>A34*B34*0.001</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>200</v>
+      </c>
+      <c r="I34" s="4">
+        <f>H34/A34*1000</f>
+        <v>80</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>5000</v>
       </c>
@@ -1739,8 +1802,24 @@
         <f t="shared" ref="C35:C41" si="21">A35*B35*0.001</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>700</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" ref="I35:I41" si="22">H35/A35*1000</f>
+        <v>140</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7500</v>
       </c>
@@ -1751,8 +1830,24 @@
         <f t="shared" si="21"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>1100</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="22"/>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="J36">
+        <v>23</v>
+      </c>
+      <c r="K36">
+        <v>14</v>
+      </c>
+      <c r="L36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>10000</v>
       </c>
@@ -1763,8 +1858,24 @@
         <f t="shared" si="21"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>1300</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="22"/>
+        <v>130</v>
+      </c>
+      <c r="J37">
+        <v>23</v>
+      </c>
+      <c r="K37">
+        <v>14</v>
+      </c>
+      <c r="L37">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>12500</v>
       </c>
@@ -1775,8 +1886,24 @@
         <f t="shared" si="21"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>2200</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="22"/>
+        <v>176</v>
+      </c>
+      <c r="J38">
+        <v>23</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>15000</v>
       </c>
@@ -1787,8 +1914,24 @@
         <f t="shared" si="21"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>2200</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="22"/>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="J39">
+        <v>23</v>
+      </c>
+      <c r="K39">
+        <v>14</v>
+      </c>
+      <c r="L39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>17500</v>
       </c>
@@ -1799,8 +1942,24 @@
         <f t="shared" si="21"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>2200</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="22"/>
+        <v>125.71428571428572</v>
+      </c>
+      <c r="J40">
+        <v>23</v>
+      </c>
+      <c r="K40">
+        <v>14</v>
+      </c>
+      <c r="L40">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>20000</v>
       </c>
@@ -1810,6 +1969,34 @@
       <c r="C41">
         <f t="shared" si="21"/>
         <v>800</v>
+      </c>
+      <c r="D41">
+        <v>564.70000000000005</v>
+      </c>
+      <c r="E41">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>3200</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="22"/>
+        <v>160</v>
+      </c>
+      <c r="J41">
+        <v>23</v>
+      </c>
+      <c r="K41">
+        <v>14</v>
+      </c>
+      <c r="L41">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/figures/performance_data.xlsx
+++ b/figures/performance_data.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Jason D. Bakos\dropbear_lstm\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA184B2E-9E14-4B2E-91DF-FA79D855D5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B6FD50-42DC-44C5-BABB-31884C6CB37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47505" yWindow="4830" windowWidth="19365" windowHeight="11895" xr2:uid="{6B51B192-BD88-47B2-97DB-0DC83492C492}"/>
+    <workbookView xWindow="41100" yWindow="2565" windowWidth="24480" windowHeight="17220" xr2:uid="{6B51B192-BD88-47B2-97DB-0DC83492C492}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>Subsample rate (Hz)</t>
   </si>
@@ -113,10 +112,7 @@
     <t>Fmax</t>
   </si>
   <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>FF</t>
+    <t>latency (us)</t>
   </si>
 </sst>
 </file>
@@ -477,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70EEE5B-2251-4268-BBC1-975F6029F5C0}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,20 +484,21 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,18 +529,19 @@
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2500</v>
       </c>
@@ -579,20 +577,20 @@
         <f>G2*2+H2+I2</f>
         <v>70604</v>
       </c>
-      <c r="K2" s="3">
-        <f t="shared" ref="K2:K9" si="0">(J2)/(1/A2)/1000000000</f>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:L9" si="0">(J2)/(1/A2)/1000000000</f>
         <v>0.17651</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>(C2*50+50)*3</f>
         <v>30150</v>
       </c>
-      <c r="M2" s="2">
-        <f>L2/(1/A2)/1024/1024/1024</f>
+      <c r="N2" s="2">
+        <f>M2/(1/A2)/1024/1024/1024</f>
         <v>7.0198439061641693E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -628,20 +626,20 @@
         <f t="shared" ref="J3:J9" si="5">G3*2+H3+I3</f>
         <v>245604</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <f t="shared" si="0"/>
         <v>1.2280199999999999</v>
       </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L9" si="6">(C3*50+50)*3</f>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="6">(C3*50+50)*3</f>
         <v>105150</v>
       </c>
-      <c r="M3" s="2">
-        <f t="shared" ref="M3:M9" si="7">L3/(1/A3)/1024/1024/1024</f>
+      <c r="N3" s="2">
+        <f t="shared" ref="N3:N9" si="7">M3/(1/A3)/1024/1024/1024</f>
         <v>0.48964284360408783</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7500</v>
       </c>
@@ -677,20 +675,20 @@
         <f t="shared" si="5"/>
         <v>385604</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="0"/>
         <v>2.8920300000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <f t="shared" si="6"/>
         <v>165150</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <f t="shared" si="7"/>
         <v>1.1535594239830971</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -726,20 +724,20 @@
         <f t="shared" si="5"/>
         <v>455604</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="0"/>
         <v>4.5560400000000003</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <f t="shared" si="6"/>
         <v>195150</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <f t="shared" si="7"/>
         <v>1.8174760043621063</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12500</v>
       </c>
@@ -775,20 +773,20 @@
         <f t="shared" si="5"/>
         <v>770604</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>9.6325500000000002</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="6"/>
         <v>330150</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <f t="shared" si="7"/>
         <v>3.8434518501162525</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15000</v>
       </c>
@@ -824,20 +822,20 @@
         <f t="shared" si="5"/>
         <v>770604</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <f t="shared" si="0"/>
         <v>11.559060000000001</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="6"/>
         <v>330150</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <f t="shared" si="7"/>
         <v>4.6121422201395035</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17500</v>
       </c>
@@ -873,20 +871,20 @@
         <f t="shared" si="5"/>
         <v>770604</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <f t="shared" si="0"/>
         <v>13.485569999999999</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="6"/>
         <v>330150</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <f t="shared" si="7"/>
         <v>5.3808325901627541</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>20000</v>
       </c>
@@ -922,20 +920,20 @@
         <f t="shared" si="5"/>
         <v>1120604</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <f t="shared" si="0"/>
         <v>22.41208</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="6"/>
         <v>480150</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <f t="shared" si="7"/>
         <v>8.9434906840324402</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,20 +955,21 @@
       <c r="J12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>200</v>
       </c>
@@ -992,24 +991,25 @@
         <v>57.601197934595525</v>
       </c>
       <c r="J13" s="3">
-        <f>L2/K13*1000000/1024/1024/1024</f>
+        <f>M2/L13*1000000/1024/1024/1024</f>
         <v>22.908130888274123</v>
       </c>
-      <c r="K13" s="3">
-        <f t="shared" ref="K13:K20" si="8">B13/E13</f>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <f t="shared" ref="L13:L20" si="8">B13/E13</f>
         <v>1.2257383966244726</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>4</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>3</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>700</v>
       </c>
@@ -1031,24 +1031,25 @@
         <v>72.927813496932515</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14:J20" si="11">L3/K14*1000000/1024/1024/1024</f>
+        <f t="shared" ref="J14:J20" si="11">M3/L14*1000000/1024/1024/1024</f>
         <v>29.078176233666078</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
         <f t="shared" si="8"/>
         <v>3.3677685950413223</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>16</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>10</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1100</v>
       </c>
@@ -1073,21 +1074,22 @@
         <f t="shared" si="11"/>
         <v>28.853889468104342</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
         <f t="shared" si="8"/>
         <v>5.330578512396694</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>23</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>14</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1300</v>
       </c>
@@ -1112,21 +1114,22 @@
         <f t="shared" si="11"/>
         <v>29.518737788968441</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
         <f t="shared" si="8"/>
         <v>6.1570247933884295</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>23</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>14</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2200</v>
       </c>
@@ -1151,21 +1154,22 @@
         <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
         <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>23</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>14</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2200</v>
       </c>
@@ -1190,21 +1194,22 @@
         <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
         <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>23</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>14</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2200</v>
       </c>
@@ -1229,21 +1234,22 @@
         <f t="shared" si="11"/>
         <v>30.303086059153188</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
         <f t="shared" si="8"/>
         <v>10.146694214876034</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>23</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>14</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3200</v>
       </c>
@@ -1268,21 +1274,22 @@
         <f t="shared" si="11"/>
         <v>29.506813163406278</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <f t="shared" si="8"/>
         <v>15.154958677685951</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>23</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>14</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1310,17 +1317,18 @@
       <c r="J22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2500</v>
       </c>
@@ -1354,20 +1362,20 @@
         <f>G23*2+H23+I23</f>
         <v>35604</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" ref="K23:K30" si="12">(J23)/(1/A23)/1000000000</f>
+      <c r="L23" s="3">
+        <f t="shared" ref="L23:L30" si="12">(J23)/(1/A23)/1000000000</f>
         <v>8.9010000000000006E-2</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f>(C23*50+50)*3</f>
         <v>15150</v>
       </c>
-      <c r="M23" s="2">
-        <f>L23/(1/A23)/1024/1024/1024</f>
+      <c r="N23" s="2">
+        <f>M23/(1/A23)/1024/1024/1024</f>
         <v>3.5273842513561249E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5000</v>
       </c>
@@ -1401,20 +1409,20 @@
         <f t="shared" ref="J24:J30" si="18">G24*2+H24+I24</f>
         <v>70604</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <f t="shared" si="12"/>
         <v>0.35302</v>
       </c>
-      <c r="L24">
-        <f t="shared" ref="L24:L30" si="19">(C24*50+50)*3</f>
+      <c r="M24">
+        <f t="shared" ref="M24:M30" si="19">(C24*50+50)*3</f>
         <v>30150</v>
       </c>
-      <c r="M24" s="2">
-        <f t="shared" ref="M24:M30" si="20">L24/(1/A24)/1024/1024/1024</f>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24:N30" si="20">M24/(1/A24)/1024/1024/1024</f>
         <v>0.14039687812328339</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7500</v>
       </c>
@@ -1448,20 +1456,20 @@
         <f t="shared" si="18"/>
         <v>105604</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <f t="shared" si="12"/>
         <v>0.79203000000000001</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="19"/>
         <v>45150</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <f t="shared" si="20"/>
         <v>0.31536910682916641</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10000</v>
       </c>
@@ -1495,20 +1503,20 @@
         <f t="shared" si="18"/>
         <v>140604</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <f t="shared" si="12"/>
         <v>1.40604</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <f t="shared" si="19"/>
         <v>60150</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <f t="shared" si="20"/>
         <v>0.56019052863121033</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12500</v>
       </c>
@@ -1542,20 +1550,20 @@
         <f t="shared" si="18"/>
         <v>175604</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <f t="shared" si="12"/>
         <v>2.1950500000000002</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <f t="shared" si="19"/>
         <v>75150</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <f t="shared" si="20"/>
         <v>0.87486114352941502</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15000</v>
       </c>
@@ -1589,20 +1597,20 @@
         <f t="shared" si="18"/>
         <v>210604</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <f t="shared" si="12"/>
         <v>3.1590600000000002</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <f t="shared" si="19"/>
         <v>90150</v>
       </c>
-      <c r="M28" s="2">
+      <c r="N28" s="2">
         <f t="shared" si="20"/>
         <v>1.2593809515237808</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17500</v>
       </c>
@@ -1636,20 +1644,20 @@
         <f t="shared" si="18"/>
         <v>245604</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <f t="shared" si="12"/>
         <v>4.2980700000000001</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f t="shared" si="19"/>
         <v>105150</v>
       </c>
-      <c r="M29" s="2">
+      <c r="N29" s="2">
         <f t="shared" si="20"/>
         <v>1.7137499526143074</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>20000</v>
       </c>
@@ -1683,20 +1691,20 @@
         <f t="shared" si="18"/>
         <v>280604</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <f t="shared" si="12"/>
         <v>5.6120799999999997</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <f t="shared" si="19"/>
         <v>120150</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N30" s="2">
         <f t="shared" si="20"/>
         <v>2.2379681468009949</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,14 +1717,41 @@
       <c r="D33" t="s">
         <v>24</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
         <v>25</v>
       </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2500</v>
       </c>
@@ -1727,8 +1762,46 @@
         <f>A34*B34*0.001</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>474</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2">
+        <f>268/D34</f>
+        <v>0.56540084388185652</v>
+      </c>
+      <c r="I34">
+        <v>200</v>
+      </c>
+      <c r="J34" s="4">
+        <f>I34/A34*1000</f>
+        <v>80</v>
+      </c>
+      <c r="K34">
+        <v>474</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1.2257383966244726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5000</v>
       </c>
@@ -1739,8 +1812,46 @@
         <f t="shared" ref="C35:C41" si="21">A35*B35*0.001</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>474</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35" s="2">
+        <f>368/D35</f>
+        <v>0.77637130801687759</v>
+      </c>
+      <c r="I35">
+        <v>700</v>
+      </c>
+      <c r="J35" s="4">
+        <f>I35/A35*1000</f>
+        <v>140</v>
+      </c>
+      <c r="K35">
+        <v>484</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>10</v>
+      </c>
+      <c r="N35">
+        <v>24</v>
+      </c>
+      <c r="O35" s="2">
+        <v>3.3677685950413223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7500</v>
       </c>
@@ -1751,8 +1862,46 @@
         <f t="shared" si="21"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>474</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>13</v>
+      </c>
+      <c r="H36" s="2">
+        <f>468/D36</f>
+        <v>0.98734177215189878</v>
+      </c>
+      <c r="I36">
+        <v>1100</v>
+      </c>
+      <c r="J36" s="4">
+        <f>I36/A36*1000</f>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="K36">
+        <v>484</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36">
+        <v>14</v>
+      </c>
+      <c r="N36">
+        <v>39</v>
+      </c>
+      <c r="O36" s="2">
+        <v>5.330578512396694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10000</v>
       </c>
@@ -1763,8 +1912,46 @@
         <f t="shared" si="21"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>474</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37">
+        <v>17</v>
+      </c>
+      <c r="H37" s="2">
+        <f>568/D37</f>
+        <v>1.1983122362869199</v>
+      </c>
+      <c r="I37">
+        <v>1300</v>
+      </c>
+      <c r="J37" s="4">
+        <f>I37/A37*1000</f>
+        <v>130</v>
+      </c>
+      <c r="K37">
+        <v>484</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>49</v>
+      </c>
+      <c r="O37" s="2">
+        <v>6.1570247933884295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12500</v>
       </c>
@@ -1775,8 +1962,46 @@
         <f t="shared" si="21"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>474</v>
+      </c>
+      <c r="E38">
+        <v>11</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>19</v>
+      </c>
+      <c r="H38" s="2">
+        <f>668/D38</f>
+        <v>1.409282700421941</v>
+      </c>
+      <c r="I38">
+        <v>2200</v>
+      </c>
+      <c r="J38" s="4">
+        <f>I38/A38*1000</f>
+        <v>176</v>
+      </c>
+      <c r="K38">
+        <v>484</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>70</v>
+      </c>
+      <c r="O38" s="2">
+        <v>10.146694214876034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>15000</v>
       </c>
@@ -1787,8 +2012,46 @@
         <f t="shared" si="21"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>474</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>23</v>
+      </c>
+      <c r="H39" s="2">
+        <f>768/D39</f>
+        <v>1.620253164556962</v>
+      </c>
+      <c r="I39">
+        <v>2200</v>
+      </c>
+      <c r="J39" s="4">
+        <f>I39/A39*1000</f>
+        <v>146.66666666666666</v>
+      </c>
+      <c r="K39">
+        <v>484</v>
+      </c>
+      <c r="L39">
+        <v>23</v>
+      </c>
+      <c r="M39">
+        <v>14</v>
+      </c>
+      <c r="N39">
+        <v>70</v>
+      </c>
+      <c r="O39" s="2">
+        <v>10.146694214876034</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17500</v>
       </c>
@@ -1799,8 +2062,46 @@
         <f t="shared" si="21"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>474</v>
+      </c>
+      <c r="E40">
+        <v>15</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>24</v>
+      </c>
+      <c r="H40" s="2">
+        <f>868/D40</f>
+        <v>1.8312236286919832</v>
+      </c>
+      <c r="I40">
+        <v>2200</v>
+      </c>
+      <c r="J40" s="4">
+        <f>I40/A40*1000</f>
+        <v>125.71428571428572</v>
+      </c>
+      <c r="K40">
+        <v>484</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>70</v>
+      </c>
+      <c r="O40" s="2">
+        <v>10.146694214876034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>20000</v>
       </c>
@@ -1810,6 +2111,44 @@
       <c r="C41">
         <f t="shared" si="21"/>
         <v>800</v>
+      </c>
+      <c r="D41">
+        <v>484</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>27</v>
+      </c>
+      <c r="H41" s="2">
+        <f>1830/D41</f>
+        <v>3.78099173553719</v>
+      </c>
+      <c r="I41">
+        <v>3200</v>
+      </c>
+      <c r="J41" s="4">
+        <f>I41/A41*1000</f>
+        <v>160</v>
+      </c>
+      <c r="K41">
+        <v>484</v>
+      </c>
+      <c r="L41">
+        <v>23</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>95</v>
+      </c>
+      <c r="O41" s="2">
+        <v>15.154958677685951</v>
       </c>
     </row>
   </sheetData>
